--- a/pic_condition_2.xlsx
+++ b/pic_condition_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\time_exp_at\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17538C23-50C7-4893-87B6-8D72D5BA05BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033B4F98-CA8C-4A88-981D-5CC66C40A622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>emo_pic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,19 +66,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0, -0.3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0, 0.3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.3, 0]</t>
+    <t>posx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA45D9-72D6-48A2-BDAC-A4099AD665E5}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -463,7 +455,7 @@
     <col min="1" max="1" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,61 +468,76 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0.13849030000000001</v>
       </c>
+      <c r="E2">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0.15521960000000001</v>
       </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4">
+        <v>-0.4</v>
       </c>
       <c r="D4" s="1">
         <v>0.1152479</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5">
+        <v>0.4</v>
       </c>
       <c r="D5" s="1">
         <v>5.61269E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pic_condition_2.xlsx
+++ b/pic_condition_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\time_exp_at\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033B4F98-CA8C-4A88-981D-5CC66C40A622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B04436-E87B-4667-93A6-1B6D978BD26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -463,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -479,11 +479,11 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>0.13849030000000001</v>
+      </c>
+      <c r="D2">
         <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.13849030000000001</v>
       </c>
       <c r="E2">
         <v>-0.4</v>
@@ -496,11 +496,11 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>0.15521960000000001</v>
+      </c>
+      <c r="D3">
         <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.15521960000000001</v>
       </c>
       <c r="E3">
         <v>0.4</v>
@@ -513,11 +513,11 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>-0.4</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>0.1152479</v>
+      </c>
+      <c r="D4">
+        <v>-0.7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -530,11 +530,11 @@
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0.4</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <v>5.61269E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/pic_condition_2.xlsx
+++ b/pic_condition_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\time_exp_at\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程式\psychopy\time_attention\timeperception_at\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B04436-E87B-4667-93A6-1B6D978BD26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC74499F-C773-43B4-9823-ECECAF3AC6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
+    <workbookView xWindow="3675" yWindow="1943" windowWidth="15390" windowHeight="9442" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -50,27 +50,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\user\Desktop\time_exp\emo_pic\FBgs1RAVEAAo9TV.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\user\Desktop\time_exp\emo_pic\EBPgLdJe_400x400.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\user\Desktop\time_exp\emo_pic\rdt-20210516-0143118280534424875981353.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\user\Desktop\time_exp\emo_pic\S__42811412.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>posx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>posy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\EBPgLdJe_400x400.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\FBgs1RAVEAAo9TV.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\rdt-20210516-0143118280534424875981353.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\S__42811412.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,15 +447,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="33.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,15 +466,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -489,9 +489,9 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -506,9 +506,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -523,9 +523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>7</v>

--- a/pic_condition_2.xlsx
+++ b/pic_condition_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程式\psychopy\time_attention\timeperception_at\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC74499F-C773-43B4-9823-ECECAF3AC6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B20374-F163-4322-91C5-D5922723D366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1943" windowWidth="15390" windowHeight="9442" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>emo_pic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,19 +58,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emo_pic\EBPgLdJe_400x400.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emo_pic\FBgs1RAVEAAo9TV.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emo_pic\rdt-20210516-0143118280534424875981353.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emo_pic\S__42811412.jpg</t>
+    <t>emo_pic\pneutral_5500.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pneutral_7100.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pneutral_7233.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pneutral_7950.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_low_9331.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_low_6010.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_low_2520.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_low_2100.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_high_6230.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_high_1300.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_high_1201.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\pnegative_high_1120.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_low_7340.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_low_7325.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_low_2314.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_low_2156.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_high_8492.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_high_8300.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_high_5621.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo_pic\positive_high_8370.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA45D9-72D6-48A2-BDAC-A4099AD665E5}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -540,6 +604,278 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.13849030000000001</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.15521960000000001</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.1152479</v>
+      </c>
+      <c r="D8">
+        <v>-0.7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.61269E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.13849030000000001</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.15521960000000001</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.1152479</v>
+      </c>
+      <c r="D12">
+        <v>-0.7</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.61269E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.13849030000000001</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.15521960000000001</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1152479</v>
+      </c>
+      <c r="D16">
+        <v>-0.7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.61269E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.7</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.13849030000000001</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.15521960000000001</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.1152479</v>
+      </c>
+      <c r="D20">
+        <v>-0.7</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.61269E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.7</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pic_condition_2.xlsx
+++ b/pic_condition_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程式\psychopy\time_attention\timeperception_at\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B20374-F163-4322-91C5-D5922723D366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3AD00A-2F20-4E67-8CCE-E8EC12399BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="12795" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>

--- a/pic_condition_2.xlsx
+++ b/pic_condition_2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程式\psychopy\time_attention\timeperception_at\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\program\timeperception_at\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3AD00A-2F20-4E67-8CCE-E8EC12399BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17BB299-0346-4B45-9E7D-C38FD8D2A0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="12795" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14B3FCA7-AFBE-45EE-8B07-380C864EC17D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -511,15 +511,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.796875" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -553,7 +553,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -570,7 +570,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -621,7 +621,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -638,7 +638,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -689,7 +689,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -706,7 +706,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -757,7 +757,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -774,7 +774,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -825,7 +825,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -842,7 +842,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
